--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3823.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3823.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.337442809612162</v>
+        <v>5.018908500671387</v>
       </c>
       <c r="B1">
-        <v>1.702688086377452</v>
+        <v>4.035956859588623</v>
       </c>
       <c r="C1">
-        <v>2.523778421959725</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>5.691847317929742</v>
+        <v>4.076705932617188</v>
       </c>
       <c r="E1">
-        <v>1.960992316185444</v>
+        <v>2.663103103637695</v>
       </c>
     </row>
   </sheetData>
